--- a/biology/Biochimie/CTP_synthase/CTP_synthase.xlsx
+++ b/biology/Biochimie/CTP_synthase/CTP_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La CTP synthetase est une ligase qui catalyse la réaction :
 ATP + UTP + L-glutamine + H2O  
         ⇌
     {\displaystyle \rightleftharpoons }
   ADP + phosphate + CTP + L-glutamate.
-Elle est l'enzyme limitante de la biosynthèse des nucléotides pyrimidiques[2],[3]. Son mécanisme réactionnel se déroule en deux étapes :
+Elle est l'enzyme limitante de la biosynthèse des nucléotides pyrimidiques,. Son mécanisme réactionnel se déroule en deux étapes :
 L-glutamine + H2O  
         ⇌
     {\displaystyle \rightleftharpoons }
@@ -496,7 +508,7 @@
         ⇌
     {\displaystyle \rightleftharpoons }
   ADP + phosphate + CTP.
-La réaction commence par la phosphorylation de l'UTP sur l'atome d'oxygène du carbone 4, rendant ce dernier électrophile et réactif par rapport à l'ammoniac[4]. Le groupe amine provient de la glutamine, hydrolysée par un domaine amidotransférase afin de produire de l'ammoniac. NH3 est ensuite transporté à l'intérieur de la protéine vers le domaine synthase[5],[1]. L'ammoniac libéré à l'étape précédente peut alors réagir avec l'intermédiaire UTP-4-phosphoryle pour former le CTP[6].
+La réaction commence par la phosphorylation de l'UTP sur l'atome d'oxygène du carbone 4, rendant ce dernier électrophile et réactif par rapport à l'ammoniac. Le groupe amine provient de la glutamine, hydrolysée par un domaine amidotransférase afin de produire de l'ammoniac. NH3 est ensuite transporté à l'intérieur de la protéine vers le domaine synthase,. L'ammoniac libéré à l'étape précédente peut alors réagir avec l'intermédiaire UTP-4-phosphoryle pour former le CTP.
 </t>
         </is>
       </c>
